--- a/various/DPF.xlsx
+++ b/various/DPF.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -144,9 +144,6 @@
     <t>Se déplacer selon la trajectoire optimale</t>
   </si>
   <si>
-    <t>Être autonome</t>
-  </si>
-  <si>
     <t>Avoir un temps d'exécution inférieur à 10 minutes</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Recevoir  signal d'antenne</t>
+  </si>
+  <si>
+    <t>Être autonome pendant un minimum de 10 minutes</t>
   </si>
 </sst>
 </file>
@@ -210,12 +210,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,6 +217,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,12 +528,12 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -554,299 +554,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>46</v>
+      <c r="AB3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
@@ -906,13 +906,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1452,6 +1452,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="O3:P6"/>
     <mergeCell ref="AB3:AB6"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="B1:AA1"/>
@@ -1468,21 +1483,6 @@
     <mergeCell ref="V3:V6"/>
     <mergeCell ref="W3:W6"/>
     <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="O3:P6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
